--- a/public/room-template.xlsx
+++ b/public/room-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linh/staff-portal-web/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E824801F-5935-F544-A72D-726DFC9AE323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F500C0F9-CD70-8848-A17D-FF8AA1EF3FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6700" yWindow="2600" windowWidth="28800" windowHeight="16260" xr2:uid="{BA0EB9C3-12C4-9C45-9C5E-DF8F105EEFE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Tên phòng</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Phòng giáo viên</t>
+  </si>
+  <si>
+    <t>Phòng làm việc</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAED9B37-DC91-F646-B2F5-9F1FFDAF461F}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -547,6 +550,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
